--- a/lab/lab_4/jałocha_wiszniewski_zborowski.xlsx
+++ b/lab/lab_4/jałocha_wiszniewski_zborowski.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE2224A-27CE-433C-8E65-5564F8F86468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA064B2-F0E0-41CA-8D39-E51EF4D7C023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela 1" sheetId="1" r:id="rId1"/>
@@ -1060,6 +1060,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1153,7 +1154,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -4278,46 +4278,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="76" t="s">
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="73" t="s">
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="76"/>
     </row>
     <row r="2" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="79"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="72"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="73"/>
       <c r="E2" s="23" t="s">
         <v>3</v>
       </c>
@@ -4368,7 +4368,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="66">
+      <c r="A3" s="67">
         <v>0.05</v>
       </c>
       <c r="B3" s="44">
@@ -4394,7 +4394,7 @@
       <c r="T3" s="6"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="45">
         <v>2</v>
       </c>
@@ -4418,7 +4418,7 @@
       <c r="T4" s="2"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="45">
         <v>3</v>
       </c>
@@ -4442,7 +4442,7 @@
       <c r="T5" s="2"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="67"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="45">
         <v>4</v>
       </c>
@@ -4466,7 +4466,7 @@
       <c r="T6" s="2"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="67"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="45">
         <v>5</v>
       </c>
@@ -4490,7 +4490,7 @@
       <c r="T7" s="2"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="67"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="45">
         <v>6</v>
       </c>
@@ -4514,7 +4514,7 @@
       <c r="T8" s="2"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="67"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="45">
         <v>7</v>
       </c>
@@ -4538,7 +4538,7 @@
       <c r="T9" s="2"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="67"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="45">
         <v>8</v>
       </c>
@@ -4562,7 +4562,7 @@
       <c r="T10" s="2"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="45">
         <v>9</v>
       </c>
@@ -4586,7 +4586,7 @@
       <c r="T11" s="2"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="45">
         <v>10</v>
       </c>
@@ -4610,7 +4610,7 @@
       <c r="T12" s="2"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="45">
         <v>11</v>
       </c>
@@ -4634,7 +4634,7 @@
       <c r="T13" s="2"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="45">
         <v>12</v>
       </c>
@@ -4658,7 +4658,7 @@
       <c r="T14" s="2"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="45">
         <v>13</v>
       </c>
@@ -4682,7 +4682,7 @@
       <c r="T15" s="2"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="45">
         <v>14</v>
       </c>
@@ -4706,7 +4706,7 @@
       <c r="T16" s="2"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
+      <c r="A17" s="68"/>
       <c r="B17" s="45">
         <v>15</v>
       </c>
@@ -4730,7 +4730,7 @@
       <c r="T17" s="2"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="67"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="45">
         <v>16</v>
       </c>
@@ -4754,7 +4754,7 @@
       <c r="T18" s="2"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="45">
         <v>17</v>
       </c>
@@ -4778,7 +4778,7 @@
       <c r="T19" s="2"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="45">
         <v>18</v>
       </c>
@@ -4802,7 +4802,7 @@
       <c r="T20" s="2"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
+      <c r="A21" s="68"/>
       <c r="B21" s="45">
         <v>19</v>
       </c>
@@ -4826,7 +4826,7 @@
       <c r="T21" s="2"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
+      <c r="A22" s="68"/>
       <c r="B22" s="45">
         <v>20</v>
       </c>
@@ -4850,7 +4850,7 @@
       <c r="T22" s="2"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
+      <c r="A23" s="68"/>
       <c r="B23" s="45">
         <v>21</v>
       </c>
@@ -4874,7 +4874,7 @@
       <c r="T23" s="2"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="67"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="45">
         <v>22</v>
       </c>
@@ -4898,7 +4898,7 @@
       <c r="T24" s="2"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="67"/>
+      <c r="A25" s="68"/>
       <c r="B25" s="45">
         <v>23</v>
       </c>
@@ -4922,7 +4922,7 @@
       <c r="T25" s="2"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="67"/>
+      <c r="A26" s="68"/>
       <c r="B26" s="45">
         <v>24</v>
       </c>
@@ -4946,7 +4946,7 @@
       <c r="T26" s="2"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="67"/>
+      <c r="A27" s="68"/>
       <c r="B27" s="45">
         <v>25</v>
       </c>
@@ -4970,7 +4970,7 @@
       <c r="T27" s="2"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="67"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="45">
         <v>26</v>
       </c>
@@ -4994,7 +4994,7 @@
       <c r="T28" s="2"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="67"/>
+      <c r="A29" s="68"/>
       <c r="B29" s="45">
         <v>27</v>
       </c>
@@ -5018,7 +5018,7 @@
       <c r="T29" s="2"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="67"/>
+      <c r="A30" s="68"/>
       <c r="B30" s="45">
         <v>28</v>
       </c>
@@ -5042,7 +5042,7 @@
       <c r="T30" s="2"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="67"/>
+      <c r="A31" s="68"/>
       <c r="B31" s="45">
         <v>29</v>
       </c>
@@ -5066,7 +5066,7 @@
       <c r="T31" s="2"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="67"/>
+      <c r="A32" s="68"/>
       <c r="B32" s="45">
         <v>30</v>
       </c>
@@ -5090,7 +5090,7 @@
       <c r="T32" s="2"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="67"/>
+      <c r="A33" s="68"/>
       <c r="B33" s="45">
         <v>31</v>
       </c>
@@ -5114,7 +5114,7 @@
       <c r="T33" s="2"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="67"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="45">
         <v>32</v>
       </c>
@@ -5138,7 +5138,7 @@
       <c r="T34" s="2"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="67"/>
+      <c r="A35" s="68"/>
       <c r="B35" s="45">
         <v>33</v>
       </c>
@@ -5162,7 +5162,7 @@
       <c r="T35" s="2"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="67"/>
+      <c r="A36" s="68"/>
       <c r="B36" s="45">
         <v>34</v>
       </c>
@@ -5186,7 +5186,7 @@
       <c r="T36" s="2"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="67"/>
+      <c r="A37" s="68"/>
       <c r="B37" s="45">
         <v>35</v>
       </c>
@@ -5210,7 +5210,7 @@
       <c r="T37" s="2"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="67"/>
+      <c r="A38" s="68"/>
       <c r="B38" s="45">
         <v>36</v>
       </c>
@@ -5234,7 +5234,7 @@
       <c r="T38" s="2"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="67"/>
+      <c r="A39" s="68"/>
       <c r="B39" s="45">
         <v>37</v>
       </c>
@@ -5258,7 +5258,7 @@
       <c r="T39" s="2"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="67"/>
+      <c r="A40" s="68"/>
       <c r="B40" s="45">
         <v>38</v>
       </c>
@@ -5282,7 +5282,7 @@
       <c r="T40" s="2"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="67"/>
+      <c r="A41" s="68"/>
       <c r="B41" s="45">
         <v>39</v>
       </c>
@@ -5306,7 +5306,7 @@
       <c r="T41" s="2"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="67"/>
+      <c r="A42" s="68"/>
       <c r="B42" s="45">
         <v>40</v>
       </c>
@@ -5330,7 +5330,7 @@
       <c r="T42" s="2"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="67"/>
+      <c r="A43" s="68"/>
       <c r="B43" s="45">
         <v>41</v>
       </c>
@@ -5354,7 +5354,7 @@
       <c r="T43" s="2"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="67"/>
+      <c r="A44" s="68"/>
       <c r="B44" s="45">
         <v>42</v>
       </c>
@@ -5378,7 +5378,7 @@
       <c r="T44" s="2"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="67"/>
+      <c r="A45" s="68"/>
       <c r="B45" s="45">
         <v>43</v>
       </c>
@@ -5402,7 +5402,7 @@
       <c r="T45" s="2"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="67"/>
+      <c r="A46" s="68"/>
       <c r="B46" s="45">
         <v>44</v>
       </c>
@@ -5426,7 +5426,7 @@
       <c r="T46" s="2"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="67"/>
+      <c r="A47" s="68"/>
       <c r="B47" s="45">
         <v>45</v>
       </c>
@@ -5450,7 +5450,7 @@
       <c r="T47" s="2"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="67"/>
+      <c r="A48" s="68"/>
       <c r="B48" s="45">
         <v>46</v>
       </c>
@@ -5474,7 +5474,7 @@
       <c r="T48" s="2"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="67"/>
+      <c r="A49" s="68"/>
       <c r="B49" s="45">
         <v>47</v>
       </c>
@@ -5498,7 +5498,7 @@
       <c r="T49" s="2"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="67"/>
+      <c r="A50" s="68"/>
       <c r="B50" s="45">
         <v>48</v>
       </c>
@@ -5522,7 +5522,7 @@
       <c r="T50" s="2"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="67"/>
+      <c r="A51" s="68"/>
       <c r="B51" s="45">
         <v>49</v>
       </c>
@@ -5546,7 +5546,7 @@
       <c r="T51" s="2"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="67"/>
+      <c r="A52" s="68"/>
       <c r="B52" s="45">
         <v>50</v>
       </c>
@@ -5570,7 +5570,7 @@
       <c r="T52" s="2"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="67"/>
+      <c r="A53" s="68"/>
       <c r="B53" s="45">
         <v>51</v>
       </c>
@@ -5594,7 +5594,7 @@
       <c r="T53" s="2"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="67"/>
+      <c r="A54" s="68"/>
       <c r="B54" s="45">
         <v>52</v>
       </c>
@@ -5618,7 +5618,7 @@
       <c r="T54" s="2"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="67"/>
+      <c r="A55" s="68"/>
       <c r="B55" s="45">
         <v>53</v>
       </c>
@@ -5642,7 +5642,7 @@
       <c r="T55" s="2"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="67"/>
+      <c r="A56" s="68"/>
       <c r="B56" s="45">
         <v>54</v>
       </c>
@@ -5666,7 +5666,7 @@
       <c r="T56" s="2"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="67"/>
+      <c r="A57" s="68"/>
       <c r="B57" s="45">
         <v>55</v>
       </c>
@@ -5690,7 +5690,7 @@
       <c r="T57" s="2"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="67"/>
+      <c r="A58" s="68"/>
       <c r="B58" s="45">
         <v>56</v>
       </c>
@@ -5714,7 +5714,7 @@
       <c r="T58" s="2"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="67"/>
+      <c r="A59" s="68"/>
       <c r="B59" s="45">
         <v>57</v>
       </c>
@@ -5738,7 +5738,7 @@
       <c r="T59" s="2"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="67"/>
+      <c r="A60" s="68"/>
       <c r="B60" s="45">
         <v>58</v>
       </c>
@@ -5762,7 +5762,7 @@
       <c r="T60" s="2"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="67"/>
+      <c r="A61" s="68"/>
       <c r="B61" s="45">
         <v>59</v>
       </c>
@@ -5786,7 +5786,7 @@
       <c r="T61" s="2"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="67"/>
+      <c r="A62" s="68"/>
       <c r="B62" s="45">
         <v>60</v>
       </c>
@@ -5810,7 +5810,7 @@
       <c r="T62" s="2"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="67"/>
+      <c r="A63" s="68"/>
       <c r="B63" s="45">
         <v>61</v>
       </c>
@@ -5834,7 +5834,7 @@
       <c r="T63" s="2"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" s="67"/>
+      <c r="A64" s="68"/>
       <c r="B64" s="45">
         <v>62</v>
       </c>
@@ -5858,7 +5858,7 @@
       <c r="T64" s="2"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" s="67"/>
+      <c r="A65" s="68"/>
       <c r="B65" s="45">
         <v>63</v>
       </c>
@@ -5882,7 +5882,7 @@
       <c r="T65" s="2"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66" s="67"/>
+      <c r="A66" s="68"/>
       <c r="B66" s="45">
         <v>64</v>
       </c>
@@ -5906,7 +5906,7 @@
       <c r="T66" s="2"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="67"/>
+      <c r="A67" s="68"/>
       <c r="B67" s="45">
         <v>65</v>
       </c>
@@ -5930,7 +5930,7 @@
       <c r="T67" s="2"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A68" s="67"/>
+      <c r="A68" s="68"/>
       <c r="B68" s="45">
         <v>66</v>
       </c>
@@ -5954,7 +5954,7 @@
       <c r="T68" s="2"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A69" s="67"/>
+      <c r="A69" s="68"/>
       <c r="B69" s="45">
         <v>67</v>
       </c>
@@ -5978,7 +5978,7 @@
       <c r="T69" s="2"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70" s="67"/>
+      <c r="A70" s="68"/>
       <c r="B70" s="45">
         <v>68</v>
       </c>
@@ -6002,7 +6002,7 @@
       <c r="T70" s="2"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A71" s="67"/>
+      <c r="A71" s="68"/>
       <c r="B71" s="45">
         <v>69</v>
       </c>
@@ -6026,7 +6026,7 @@
       <c r="T71" s="2"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A72" s="67"/>
+      <c r="A72" s="68"/>
       <c r="B72" s="45">
         <v>70</v>
       </c>
@@ -6050,7 +6050,7 @@
       <c r="T72" s="2"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A73" s="67"/>
+      <c r="A73" s="68"/>
       <c r="B73" s="45">
         <v>71</v>
       </c>
@@ -6074,7 +6074,7 @@
       <c r="T73" s="2"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" s="67"/>
+      <c r="A74" s="68"/>
       <c r="B74" s="45">
         <v>72</v>
       </c>
@@ -6098,7 +6098,7 @@
       <c r="T74" s="2"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A75" s="67"/>
+      <c r="A75" s="68"/>
       <c r="B75" s="45">
         <v>73</v>
       </c>
@@ -6122,7 +6122,7 @@
       <c r="T75" s="2"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A76" s="67"/>
+      <c r="A76" s="68"/>
       <c r="B76" s="45">
         <v>74</v>
       </c>
@@ -6146,7 +6146,7 @@
       <c r="T76" s="2"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A77" s="67"/>
+      <c r="A77" s="68"/>
       <c r="B77" s="45">
         <v>75</v>
       </c>
@@ -6170,7 +6170,7 @@
       <c r="T77" s="2"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A78" s="67"/>
+      <c r="A78" s="68"/>
       <c r="B78" s="45">
         <v>76</v>
       </c>
@@ -6194,7 +6194,7 @@
       <c r="T78" s="2"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A79" s="67"/>
+      <c r="A79" s="68"/>
       <c r="B79" s="45">
         <v>77</v>
       </c>
@@ -6218,7 +6218,7 @@
       <c r="T79" s="2"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A80" s="67"/>
+      <c r="A80" s="68"/>
       <c r="B80" s="45">
         <v>78</v>
       </c>
@@ -6242,7 +6242,7 @@
       <c r="T80" s="2"/>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A81" s="67"/>
+      <c r="A81" s="68"/>
       <c r="B81" s="45">
         <v>79</v>
       </c>
@@ -6266,7 +6266,7 @@
       <c r="T81" s="2"/>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A82" s="67"/>
+      <c r="A82" s="68"/>
       <c r="B82" s="45">
         <v>80</v>
       </c>
@@ -6290,7 +6290,7 @@
       <c r="T82" s="2"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A83" s="67"/>
+      <c r="A83" s="68"/>
       <c r="B83" s="45">
         <v>81</v>
       </c>
@@ -6314,7 +6314,7 @@
       <c r="T83" s="2"/>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A84" s="67"/>
+      <c r="A84" s="68"/>
       <c r="B84" s="45">
         <v>82</v>
       </c>
@@ -6338,7 +6338,7 @@
       <c r="T84" s="2"/>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A85" s="67"/>
+      <c r="A85" s="68"/>
       <c r="B85" s="45">
         <v>83</v>
       </c>
@@ -6362,7 +6362,7 @@
       <c r="T85" s="2"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A86" s="67"/>
+      <c r="A86" s="68"/>
       <c r="B86" s="45">
         <v>84</v>
       </c>
@@ -6386,7 +6386,7 @@
       <c r="T86" s="2"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A87" s="67"/>
+      <c r="A87" s="68"/>
       <c r="B87" s="45">
         <v>85</v>
       </c>
@@ -6410,7 +6410,7 @@
       <c r="T87" s="2"/>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A88" s="67"/>
+      <c r="A88" s="68"/>
       <c r="B88" s="45">
         <v>86</v>
       </c>
@@ -6434,7 +6434,7 @@
       <c r="T88" s="2"/>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A89" s="67"/>
+      <c r="A89" s="68"/>
       <c r="B89" s="45">
         <v>87</v>
       </c>
@@ -6458,7 +6458,7 @@
       <c r="T89" s="2"/>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A90" s="67"/>
+      <c r="A90" s="68"/>
       <c r="B90" s="45">
         <v>88</v>
       </c>
@@ -6482,7 +6482,7 @@
       <c r="T90" s="2"/>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A91" s="67"/>
+      <c r="A91" s="68"/>
       <c r="B91" s="45">
         <v>89</v>
       </c>
@@ -6506,7 +6506,7 @@
       <c r="T91" s="2"/>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A92" s="67"/>
+      <c r="A92" s="68"/>
       <c r="B92" s="45">
         <v>90</v>
       </c>
@@ -6530,7 +6530,7 @@
       <c r="T92" s="2"/>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A93" s="67"/>
+      <c r="A93" s="68"/>
       <c r="B93" s="45">
         <v>91</v>
       </c>
@@ -6554,7 +6554,7 @@
       <c r="T93" s="2"/>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A94" s="67"/>
+      <c r="A94" s="68"/>
       <c r="B94" s="45">
         <v>92</v>
       </c>
@@ -6578,7 +6578,7 @@
       <c r="T94" s="2"/>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A95" s="67"/>
+      <c r="A95" s="68"/>
       <c r="B95" s="45">
         <v>93</v>
       </c>
@@ -6602,7 +6602,7 @@
       <c r="T95" s="2"/>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A96" s="67"/>
+      <c r="A96" s="68"/>
       <c r="B96" s="45">
         <v>94</v>
       </c>
@@ -6626,7 +6626,7 @@
       <c r="T96" s="2"/>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A97" s="67"/>
+      <c r="A97" s="68"/>
       <c r="B97" s="45">
         <v>95</v>
       </c>
@@ -6650,7 +6650,7 @@
       <c r="T97" s="2"/>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A98" s="67"/>
+      <c r="A98" s="68"/>
       <c r="B98" s="45">
         <v>96</v>
       </c>
@@ -6674,7 +6674,7 @@
       <c r="T98" s="2"/>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A99" s="67"/>
+      <c r="A99" s="68"/>
       <c r="B99" s="45">
         <v>97</v>
       </c>
@@ -6698,7 +6698,7 @@
       <c r="T99" s="2"/>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A100" s="67"/>
+      <c r="A100" s="68"/>
       <c r="B100" s="45">
         <v>98</v>
       </c>
@@ -6722,7 +6722,7 @@
       <c r="T100" s="2"/>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A101" s="67"/>
+      <c r="A101" s="68"/>
       <c r="B101" s="45">
         <v>99</v>
       </c>
@@ -6746,7 +6746,7 @@
       <c r="T101" s="2"/>
     </row>
     <row r="102" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="68"/>
+      <c r="A102" s="69"/>
       <c r="B102" s="50">
         <v>100</v>
       </c>
@@ -6770,7 +6770,7 @@
       <c r="T102" s="54"/>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A103" s="66">
+      <c r="A103" s="67">
         <v>0.12</v>
       </c>
       <c r="B103" s="44">
@@ -6796,7 +6796,7 @@
       <c r="T103" s="19"/>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A104" s="67"/>
+      <c r="A104" s="68"/>
       <c r="B104" s="45">
         <v>2</v>
       </c>
@@ -6820,7 +6820,7 @@
       <c r="T104" s="2"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A105" s="67"/>
+      <c r="A105" s="68"/>
       <c r="B105" s="45">
         <v>3</v>
       </c>
@@ -6844,7 +6844,7 @@
       <c r="T105" s="2"/>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A106" s="67"/>
+      <c r="A106" s="68"/>
       <c r="B106" s="45">
         <v>4</v>
       </c>
@@ -6868,7 +6868,7 @@
       <c r="T106" s="2"/>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A107" s="67"/>
+      <c r="A107" s="68"/>
       <c r="B107" s="45">
         <v>5</v>
       </c>
@@ -6892,7 +6892,7 @@
       <c r="T107" s="2"/>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A108" s="67"/>
+      <c r="A108" s="68"/>
       <c r="B108" s="45">
         <v>6</v>
       </c>
@@ -6916,7 +6916,7 @@
       <c r="T108" s="2"/>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A109" s="67"/>
+      <c r="A109" s="68"/>
       <c r="B109" s="45">
         <v>7</v>
       </c>
@@ -6940,7 +6940,7 @@
       <c r="T109" s="2"/>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A110" s="67"/>
+      <c r="A110" s="68"/>
       <c r="B110" s="45">
         <v>8</v>
       </c>
@@ -6964,7 +6964,7 @@
       <c r="T110" s="2"/>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A111" s="67"/>
+      <c r="A111" s="68"/>
       <c r="B111" s="45">
         <v>9</v>
       </c>
@@ -6988,7 +6988,7 @@
       <c r="T111" s="2"/>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A112" s="67"/>
+      <c r="A112" s="68"/>
       <c r="B112" s="45">
         <v>10</v>
       </c>
@@ -7012,7 +7012,7 @@
       <c r="T112" s="2"/>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A113" s="67"/>
+      <c r="A113" s="68"/>
       <c r="B113" s="45">
         <v>11</v>
       </c>
@@ -7036,7 +7036,7 @@
       <c r="T113" s="2"/>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A114" s="67"/>
+      <c r="A114" s="68"/>
       <c r="B114" s="45">
         <v>12</v>
       </c>
@@ -7060,7 +7060,7 @@
       <c r="T114" s="2"/>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A115" s="67"/>
+      <c r="A115" s="68"/>
       <c r="B115" s="45">
         <v>13</v>
       </c>
@@ -7084,7 +7084,7 @@
       <c r="T115" s="2"/>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A116" s="67"/>
+      <c r="A116" s="68"/>
       <c r="B116" s="45">
         <v>14</v>
       </c>
@@ -7108,7 +7108,7 @@
       <c r="T116" s="2"/>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A117" s="67"/>
+      <c r="A117" s="68"/>
       <c r="B117" s="45">
         <v>15</v>
       </c>
@@ -7132,7 +7132,7 @@
       <c r="T117" s="2"/>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A118" s="67"/>
+      <c r="A118" s="68"/>
       <c r="B118" s="45">
         <v>16</v>
       </c>
@@ -7156,7 +7156,7 @@
       <c r="T118" s="2"/>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A119" s="67"/>
+      <c r="A119" s="68"/>
       <c r="B119" s="45">
         <v>17</v>
       </c>
@@ -7180,7 +7180,7 @@
       <c r="T119" s="2"/>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A120" s="67"/>
+      <c r="A120" s="68"/>
       <c r="B120" s="45">
         <v>18</v>
       </c>
@@ -7204,7 +7204,7 @@
       <c r="T120" s="2"/>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A121" s="67"/>
+      <c r="A121" s="68"/>
       <c r="B121" s="45">
         <v>19</v>
       </c>
@@ -7228,7 +7228,7 @@
       <c r="T121" s="2"/>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A122" s="67"/>
+      <c r="A122" s="68"/>
       <c r="B122" s="45">
         <v>20</v>
       </c>
@@ -7252,7 +7252,7 @@
       <c r="T122" s="2"/>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A123" s="67"/>
+      <c r="A123" s="68"/>
       <c r="B123" s="45">
         <v>21</v>
       </c>
@@ -7276,7 +7276,7 @@
       <c r="T123" s="2"/>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A124" s="67"/>
+      <c r="A124" s="68"/>
       <c r="B124" s="45">
         <v>22</v>
       </c>
@@ -7300,7 +7300,7 @@
       <c r="T124" s="2"/>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A125" s="67"/>
+      <c r="A125" s="68"/>
       <c r="B125" s="45">
         <v>23</v>
       </c>
@@ -7324,7 +7324,7 @@
       <c r="T125" s="2"/>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A126" s="67"/>
+      <c r="A126" s="68"/>
       <c r="B126" s="45">
         <v>24</v>
       </c>
@@ -7348,7 +7348,7 @@
       <c r="T126" s="2"/>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A127" s="67"/>
+      <c r="A127" s="68"/>
       <c r="B127" s="45">
         <v>25</v>
       </c>
@@ -7372,7 +7372,7 @@
       <c r="T127" s="2"/>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A128" s="67"/>
+      <c r="A128" s="68"/>
       <c r="B128" s="45">
         <v>26</v>
       </c>
@@ -7396,7 +7396,7 @@
       <c r="T128" s="2"/>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A129" s="67"/>
+      <c r="A129" s="68"/>
       <c r="B129" s="45">
         <v>27</v>
       </c>
@@ -7420,7 +7420,7 @@
       <c r="T129" s="2"/>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A130" s="67"/>
+      <c r="A130" s="68"/>
       <c r="B130" s="45">
         <v>28</v>
       </c>
@@ -7444,7 +7444,7 @@
       <c r="T130" s="2"/>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A131" s="67"/>
+      <c r="A131" s="68"/>
       <c r="B131" s="45">
         <v>29</v>
       </c>
@@ -7468,7 +7468,7 @@
       <c r="T131" s="2"/>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A132" s="67"/>
+      <c r="A132" s="68"/>
       <c r="B132" s="45">
         <v>30</v>
       </c>
@@ -7492,7 +7492,7 @@
       <c r="T132" s="2"/>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A133" s="67"/>
+      <c r="A133" s="68"/>
       <c r="B133" s="45">
         <v>31</v>
       </c>
@@ -7516,7 +7516,7 @@
       <c r="T133" s="2"/>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A134" s="67"/>
+      <c r="A134" s="68"/>
       <c r="B134" s="45">
         <v>32</v>
       </c>
@@ -7540,7 +7540,7 @@
       <c r="T134" s="2"/>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A135" s="67"/>
+      <c r="A135" s="68"/>
       <c r="B135" s="45">
         <v>33</v>
       </c>
@@ -7564,7 +7564,7 @@
       <c r="T135" s="2"/>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A136" s="67"/>
+      <c r="A136" s="68"/>
       <c r="B136" s="45">
         <v>34</v>
       </c>
@@ -7588,7 +7588,7 @@
       <c r="T136" s="2"/>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A137" s="67"/>
+      <c r="A137" s="68"/>
       <c r="B137" s="45">
         <v>35</v>
       </c>
@@ -7612,7 +7612,7 @@
       <c r="T137" s="2"/>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A138" s="67"/>
+      <c r="A138" s="68"/>
       <c r="B138" s="45">
         <v>36</v>
       </c>
@@ -7636,7 +7636,7 @@
       <c r="T138" s="2"/>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A139" s="67"/>
+      <c r="A139" s="68"/>
       <c r="B139" s="45">
         <v>37</v>
       </c>
@@ -7660,7 +7660,7 @@
       <c r="T139" s="2"/>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A140" s="67"/>
+      <c r="A140" s="68"/>
       <c r="B140" s="45">
         <v>38</v>
       </c>
@@ -7684,7 +7684,7 @@
       <c r="T140" s="2"/>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A141" s="67"/>
+      <c r="A141" s="68"/>
       <c r="B141" s="45">
         <v>39</v>
       </c>
@@ -7708,7 +7708,7 @@
       <c r="T141" s="2"/>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A142" s="67"/>
+      <c r="A142" s="68"/>
       <c r="B142" s="45">
         <v>40</v>
       </c>
@@ -7732,7 +7732,7 @@
       <c r="T142" s="2"/>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A143" s="67"/>
+      <c r="A143" s="68"/>
       <c r="B143" s="45">
         <v>41</v>
       </c>
@@ -7756,7 +7756,7 @@
       <c r="T143" s="2"/>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A144" s="67"/>
+      <c r="A144" s="68"/>
       <c r="B144" s="45">
         <v>42</v>
       </c>
@@ -7780,7 +7780,7 @@
       <c r="T144" s="2"/>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A145" s="67"/>
+      <c r="A145" s="68"/>
       <c r="B145" s="45">
         <v>43</v>
       </c>
@@ -7804,7 +7804,7 @@
       <c r="T145" s="2"/>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A146" s="67"/>
+      <c r="A146" s="68"/>
       <c r="B146" s="45">
         <v>44</v>
       </c>
@@ -7828,7 +7828,7 @@
       <c r="T146" s="2"/>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A147" s="67"/>
+      <c r="A147" s="68"/>
       <c r="B147" s="45">
         <v>45</v>
       </c>
@@ -7852,7 +7852,7 @@
       <c r="T147" s="2"/>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A148" s="67"/>
+      <c r="A148" s="68"/>
       <c r="B148" s="45">
         <v>46</v>
       </c>
@@ -7876,7 +7876,7 @@
       <c r="T148" s="2"/>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A149" s="67"/>
+      <c r="A149" s="68"/>
       <c r="B149" s="45">
         <v>47</v>
       </c>
@@ -7900,7 +7900,7 @@
       <c r="T149" s="2"/>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A150" s="67"/>
+      <c r="A150" s="68"/>
       <c r="B150" s="45">
         <v>48</v>
       </c>
@@ -7924,7 +7924,7 @@
       <c r="T150" s="2"/>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A151" s="67"/>
+      <c r="A151" s="68"/>
       <c r="B151" s="45">
         <v>49</v>
       </c>
@@ -7948,7 +7948,7 @@
       <c r="T151" s="2"/>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A152" s="67"/>
+      <c r="A152" s="68"/>
       <c r="B152" s="45">
         <v>50</v>
       </c>
@@ -7972,7 +7972,7 @@
       <c r="T152" s="2"/>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A153" s="67"/>
+      <c r="A153" s="68"/>
       <c r="B153" s="45">
         <v>51</v>
       </c>
@@ -7996,7 +7996,7 @@
       <c r="T153" s="2"/>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A154" s="67"/>
+      <c r="A154" s="68"/>
       <c r="B154" s="45">
         <v>52</v>
       </c>
@@ -8020,7 +8020,7 @@
       <c r="T154" s="2"/>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A155" s="67"/>
+      <c r="A155" s="68"/>
       <c r="B155" s="45">
         <v>53</v>
       </c>
@@ -8044,7 +8044,7 @@
       <c r="T155" s="2"/>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A156" s="67"/>
+      <c r="A156" s="68"/>
       <c r="B156" s="45">
         <v>54</v>
       </c>
@@ -8068,7 +8068,7 @@
       <c r="T156" s="2"/>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A157" s="67"/>
+      <c r="A157" s="68"/>
       <c r="B157" s="45">
         <v>55</v>
       </c>
@@ -8092,7 +8092,7 @@
       <c r="T157" s="2"/>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A158" s="67"/>
+      <c r="A158" s="68"/>
       <c r="B158" s="45">
         <v>56</v>
       </c>
@@ -8116,7 +8116,7 @@
       <c r="T158" s="2"/>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A159" s="67"/>
+      <c r="A159" s="68"/>
       <c r="B159" s="45">
         <v>57</v>
       </c>
@@ -8140,7 +8140,7 @@
       <c r="T159" s="2"/>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A160" s="67"/>
+      <c r="A160" s="68"/>
       <c r="B160" s="45">
         <v>58</v>
       </c>
@@ -8164,7 +8164,7 @@
       <c r="T160" s="2"/>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A161" s="67"/>
+      <c r="A161" s="68"/>
       <c r="B161" s="45">
         <v>59</v>
       </c>
@@ -8188,7 +8188,7 @@
       <c r="T161" s="2"/>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A162" s="67"/>
+      <c r="A162" s="68"/>
       <c r="B162" s="45">
         <v>60</v>
       </c>
@@ -8212,7 +8212,7 @@
       <c r="T162" s="2"/>
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A163" s="67"/>
+      <c r="A163" s="68"/>
       <c r="B163" s="45">
         <v>61</v>
       </c>
@@ -8236,7 +8236,7 @@
       <c r="T163" s="2"/>
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A164" s="67"/>
+      <c r="A164" s="68"/>
       <c r="B164" s="45">
         <v>62</v>
       </c>
@@ -8260,7 +8260,7 @@
       <c r="T164" s="2"/>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A165" s="67"/>
+      <c r="A165" s="68"/>
       <c r="B165" s="45">
         <v>63</v>
       </c>
@@ -8284,7 +8284,7 @@
       <c r="T165" s="2"/>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A166" s="67"/>
+      <c r="A166" s="68"/>
       <c r="B166" s="45">
         <v>64</v>
       </c>
@@ -8308,7 +8308,7 @@
       <c r="T166" s="2"/>
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A167" s="67"/>
+      <c r="A167" s="68"/>
       <c r="B167" s="45">
         <v>65</v>
       </c>
@@ -8332,7 +8332,7 @@
       <c r="T167" s="2"/>
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A168" s="67"/>
+      <c r="A168" s="68"/>
       <c r="B168" s="45">
         <v>66</v>
       </c>
@@ -8356,7 +8356,7 @@
       <c r="T168" s="2"/>
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A169" s="67"/>
+      <c r="A169" s="68"/>
       <c r="B169" s="45">
         <v>67</v>
       </c>
@@ -8380,7 +8380,7 @@
       <c r="T169" s="2"/>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A170" s="67"/>
+      <c r="A170" s="68"/>
       <c r="B170" s="45">
         <v>68</v>
       </c>
@@ -8404,7 +8404,7 @@
       <c r="T170" s="2"/>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A171" s="67"/>
+      <c r="A171" s="68"/>
       <c r="B171" s="45">
         <v>69</v>
       </c>
@@ -8428,7 +8428,7 @@
       <c r="T171" s="2"/>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A172" s="67"/>
+      <c r="A172" s="68"/>
       <c r="B172" s="45">
         <v>70</v>
       </c>
@@ -8452,7 +8452,7 @@
       <c r="T172" s="2"/>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A173" s="67"/>
+      <c r="A173" s="68"/>
       <c r="B173" s="45">
         <v>71</v>
       </c>
@@ -8476,7 +8476,7 @@
       <c r="T173" s="2"/>
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A174" s="67"/>
+      <c r="A174" s="68"/>
       <c r="B174" s="45">
         <v>72</v>
       </c>
@@ -8500,7 +8500,7 @@
       <c r="T174" s="2"/>
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A175" s="67"/>
+      <c r="A175" s="68"/>
       <c r="B175" s="45">
         <v>73</v>
       </c>
@@ -8524,7 +8524,7 @@
       <c r="T175" s="2"/>
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A176" s="67"/>
+      <c r="A176" s="68"/>
       <c r="B176" s="45">
         <v>74</v>
       </c>
@@ -8548,7 +8548,7 @@
       <c r="T176" s="2"/>
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A177" s="67"/>
+      <c r="A177" s="68"/>
       <c r="B177" s="45">
         <v>75</v>
       </c>
@@ -8572,7 +8572,7 @@
       <c r="T177" s="2"/>
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A178" s="67"/>
+      <c r="A178" s="68"/>
       <c r="B178" s="45">
         <v>76</v>
       </c>
@@ -8596,7 +8596,7 @@
       <c r="T178" s="2"/>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A179" s="67"/>
+      <c r="A179" s="68"/>
       <c r="B179" s="45">
         <v>77</v>
       </c>
@@ -8620,7 +8620,7 @@
       <c r="T179" s="2"/>
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A180" s="67"/>
+      <c r="A180" s="68"/>
       <c r="B180" s="45">
         <v>78</v>
       </c>
@@ -8644,7 +8644,7 @@
       <c r="T180" s="2"/>
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A181" s="67"/>
+      <c r="A181" s="68"/>
       <c r="B181" s="45">
         <v>79</v>
       </c>
@@ -8668,7 +8668,7 @@
       <c r="T181" s="2"/>
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A182" s="67"/>
+      <c r="A182" s="68"/>
       <c r="B182" s="45">
         <v>80</v>
       </c>
@@ -8692,7 +8692,7 @@
       <c r="T182" s="2"/>
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A183" s="67"/>
+      <c r="A183" s="68"/>
       <c r="B183" s="45">
         <v>81</v>
       </c>
@@ -8716,7 +8716,7 @@
       <c r="T183" s="2"/>
     </row>
     <row r="184" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A184" s="67"/>
+      <c r="A184" s="68"/>
       <c r="B184" s="45">
         <v>82</v>
       </c>
@@ -8740,7 +8740,7 @@
       <c r="T184" s="2"/>
     </row>
     <row r="185" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A185" s="67"/>
+      <c r="A185" s="68"/>
       <c r="B185" s="45">
         <v>83</v>
       </c>
@@ -8764,7 +8764,7 @@
       <c r="T185" s="2"/>
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A186" s="67"/>
+      <c r="A186" s="68"/>
       <c r="B186" s="45">
         <v>84</v>
       </c>
@@ -8788,7 +8788,7 @@
       <c r="T186" s="2"/>
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A187" s="67"/>
+      <c r="A187" s="68"/>
       <c r="B187" s="45">
         <v>85</v>
       </c>
@@ -8812,7 +8812,7 @@
       <c r="T187" s="2"/>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A188" s="67"/>
+      <c r="A188" s="68"/>
       <c r="B188" s="45">
         <v>86</v>
       </c>
@@ -8836,7 +8836,7 @@
       <c r="T188" s="2"/>
     </row>
     <row r="189" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A189" s="67"/>
+      <c r="A189" s="68"/>
       <c r="B189" s="45">
         <v>87</v>
       </c>
@@ -8860,7 +8860,7 @@
       <c r="T189" s="2"/>
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A190" s="67"/>
+      <c r="A190" s="68"/>
       <c r="B190" s="45">
         <v>88</v>
       </c>
@@ -8884,7 +8884,7 @@
       <c r="T190" s="2"/>
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A191" s="67"/>
+      <c r="A191" s="68"/>
       <c r="B191" s="45">
         <v>89</v>
       </c>
@@ -8908,7 +8908,7 @@
       <c r="T191" s="2"/>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A192" s="67"/>
+      <c r="A192" s="68"/>
       <c r="B192" s="45">
         <v>90</v>
       </c>
@@ -8932,7 +8932,7 @@
       <c r="T192" s="2"/>
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A193" s="67"/>
+      <c r="A193" s="68"/>
       <c r="B193" s="45">
         <v>91</v>
       </c>
@@ -8956,7 +8956,7 @@
       <c r="T193" s="2"/>
     </row>
     <row r="194" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A194" s="67"/>
+      <c r="A194" s="68"/>
       <c r="B194" s="45">
         <v>92</v>
       </c>
@@ -8980,7 +8980,7 @@
       <c r="T194" s="2"/>
     </row>
     <row r="195" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A195" s="67"/>
+      <c r="A195" s="68"/>
       <c r="B195" s="45">
         <v>93</v>
       </c>
@@ -9004,7 +9004,7 @@
       <c r="T195" s="2"/>
     </row>
     <row r="196" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A196" s="67"/>
+      <c r="A196" s="68"/>
       <c r="B196" s="45">
         <v>94</v>
       </c>
@@ -9028,7 +9028,7 @@
       <c r="T196" s="2"/>
     </row>
     <row r="197" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A197" s="67"/>
+      <c r="A197" s="68"/>
       <c r="B197" s="45">
         <v>95</v>
       </c>
@@ -9052,7 +9052,7 @@
       <c r="T197" s="2"/>
     </row>
     <row r="198" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A198" s="67"/>
+      <c r="A198" s="68"/>
       <c r="B198" s="45">
         <v>96</v>
       </c>
@@ -9076,7 +9076,7 @@
       <c r="T198" s="2"/>
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A199" s="67"/>
+      <c r="A199" s="68"/>
       <c r="B199" s="45">
         <v>97</v>
       </c>
@@ -9100,7 +9100,7 @@
       <c r="T199" s="2"/>
     </row>
     <row r="200" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A200" s="67"/>
+      <c r="A200" s="68"/>
       <c r="B200" s="45">
         <v>98</v>
       </c>
@@ -9124,7 +9124,7 @@
       <c r="T200" s="2"/>
     </row>
     <row r="201" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A201" s="67"/>
+      <c r="A201" s="68"/>
       <c r="B201" s="45">
         <v>99</v>
       </c>
@@ -9148,7 +9148,7 @@
       <c r="T201" s="2"/>
     </row>
     <row r="202" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="69"/>
+      <c r="A202" s="70"/>
       <c r="B202" s="46">
         <v>100</v>
       </c>
@@ -9172,7 +9172,7 @@
       <c r="T202" s="4"/>
     </row>
     <row r="203" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A203" s="70" t="s">
+      <c r="A203" s="71" t="s">
         <v>13</v>
       </c>
       <c r="B203" s="56">
@@ -9198,7 +9198,7 @@
       <c r="T203" s="6"/>
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A204" s="67"/>
+      <c r="A204" s="68"/>
       <c r="B204" s="45">
         <v>2</v>
       </c>
@@ -9222,7 +9222,7 @@
       <c r="T204" s="2"/>
     </row>
     <row r="205" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A205" s="67"/>
+      <c r="A205" s="68"/>
       <c r="B205" s="45">
         <v>3</v>
       </c>
@@ -9246,7 +9246,7 @@
       <c r="T205" s="2"/>
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A206" s="67"/>
+      <c r="A206" s="68"/>
       <c r="B206" s="45">
         <v>4</v>
       </c>
@@ -9270,7 +9270,7 @@
       <c r="T206" s="2"/>
     </row>
     <row r="207" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A207" s="67"/>
+      <c r="A207" s="68"/>
       <c r="B207" s="45">
         <v>5</v>
       </c>
@@ -9294,7 +9294,7 @@
       <c r="T207" s="2"/>
     </row>
     <row r="208" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A208" s="67"/>
+      <c r="A208" s="68"/>
       <c r="B208" s="45">
         <v>6</v>
       </c>
@@ -9318,7 +9318,7 @@
       <c r="T208" s="2"/>
     </row>
     <row r="209" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A209" s="67"/>
+      <c r="A209" s="68"/>
       <c r="B209" s="45">
         <v>7</v>
       </c>
@@ -9342,7 +9342,7 @@
       <c r="T209" s="2"/>
     </row>
     <row r="210" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A210" s="67"/>
+      <c r="A210" s="68"/>
       <c r="B210" s="45">
         <v>8</v>
       </c>
@@ -9366,7 +9366,7 @@
       <c r="T210" s="2"/>
     </row>
     <row r="211" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A211" s="67"/>
+      <c r="A211" s="68"/>
       <c r="B211" s="45">
         <v>9</v>
       </c>
@@ -9390,7 +9390,7 @@
       <c r="T211" s="2"/>
     </row>
     <row r="212" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A212" s="67"/>
+      <c r="A212" s="68"/>
       <c r="B212" s="45">
         <v>10</v>
       </c>
@@ -9414,7 +9414,7 @@
       <c r="T212" s="2"/>
     </row>
     <row r="213" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A213" s="67"/>
+      <c r="A213" s="68"/>
       <c r="B213" s="45">
         <v>11</v>
       </c>
@@ -9438,7 +9438,7 @@
       <c r="T213" s="2"/>
     </row>
     <row r="214" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A214" s="67"/>
+      <c r="A214" s="68"/>
       <c r="B214" s="45">
         <v>12</v>
       </c>
@@ -9462,7 +9462,7 @@
       <c r="T214" s="2"/>
     </row>
     <row r="215" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A215" s="67"/>
+      <c r="A215" s="68"/>
       <c r="B215" s="45">
         <v>13</v>
       </c>
@@ -9486,7 +9486,7 @@
       <c r="T215" s="2"/>
     </row>
     <row r="216" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A216" s="67"/>
+      <c r="A216" s="68"/>
       <c r="B216" s="45">
         <v>14</v>
       </c>
@@ -9510,7 +9510,7 @@
       <c r="T216" s="2"/>
     </row>
     <row r="217" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A217" s="67"/>
+      <c r="A217" s="68"/>
       <c r="B217" s="45">
         <v>15</v>
       </c>
@@ -9534,7 +9534,7 @@
       <c r="T217" s="2"/>
     </row>
     <row r="218" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A218" s="67"/>
+      <c r="A218" s="68"/>
       <c r="B218" s="45">
         <v>16</v>
       </c>
@@ -9558,7 +9558,7 @@
       <c r="T218" s="2"/>
     </row>
     <row r="219" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A219" s="67"/>
+      <c r="A219" s="68"/>
       <c r="B219" s="45">
         <v>17</v>
       </c>
@@ -9582,7 +9582,7 @@
       <c r="T219" s="2"/>
     </row>
     <row r="220" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A220" s="67"/>
+      <c r="A220" s="68"/>
       <c r="B220" s="45">
         <v>18</v>
       </c>
@@ -9606,7 +9606,7 @@
       <c r="T220" s="2"/>
     </row>
     <row r="221" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A221" s="67"/>
+      <c r="A221" s="68"/>
       <c r="B221" s="45">
         <v>19</v>
       </c>
@@ -9630,7 +9630,7 @@
       <c r="T221" s="2"/>
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A222" s="67"/>
+      <c r="A222" s="68"/>
       <c r="B222" s="45">
         <v>20</v>
       </c>
@@ -9654,7 +9654,7 @@
       <c r="T222" s="2"/>
     </row>
     <row r="223" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A223" s="67"/>
+      <c r="A223" s="68"/>
       <c r="B223" s="45">
         <v>21</v>
       </c>
@@ -9678,7 +9678,7 @@
       <c r="T223" s="2"/>
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A224" s="67"/>
+      <c r="A224" s="68"/>
       <c r="B224" s="45">
         <v>22</v>
       </c>
@@ -9702,7 +9702,7 @@
       <c r="T224" s="2"/>
     </row>
     <row r="225" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A225" s="67"/>
+      <c r="A225" s="68"/>
       <c r="B225" s="45">
         <v>23</v>
       </c>
@@ -9726,7 +9726,7 @@
       <c r="T225" s="2"/>
     </row>
     <row r="226" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A226" s="67"/>
+      <c r="A226" s="68"/>
       <c r="B226" s="45">
         <v>24</v>
       </c>
@@ -9750,7 +9750,7 @@
       <c r="T226" s="2"/>
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A227" s="67"/>
+      <c r="A227" s="68"/>
       <c r="B227" s="45">
         <v>25</v>
       </c>
@@ -9774,7 +9774,7 @@
       <c r="T227" s="2"/>
     </row>
     <row r="228" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A228" s="67"/>
+      <c r="A228" s="68"/>
       <c r="B228" s="45">
         <v>26</v>
       </c>
@@ -9798,7 +9798,7 @@
       <c r="T228" s="2"/>
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A229" s="67"/>
+      <c r="A229" s="68"/>
       <c r="B229" s="45">
         <v>27</v>
       </c>
@@ -9822,7 +9822,7 @@
       <c r="T229" s="2"/>
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A230" s="67"/>
+      <c r="A230" s="68"/>
       <c r="B230" s="45">
         <v>28</v>
       </c>
@@ -9846,7 +9846,7 @@
       <c r="T230" s="2"/>
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A231" s="67"/>
+      <c r="A231" s="68"/>
       <c r="B231" s="45">
         <v>29</v>
       </c>
@@ -9870,7 +9870,7 @@
       <c r="T231" s="2"/>
     </row>
     <row r="232" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A232" s="67"/>
+      <c r="A232" s="68"/>
       <c r="B232" s="45">
         <v>30</v>
       </c>
@@ -9894,7 +9894,7 @@
       <c r="T232" s="2"/>
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A233" s="67"/>
+      <c r="A233" s="68"/>
       <c r="B233" s="45">
         <v>31</v>
       </c>
@@ -9918,7 +9918,7 @@
       <c r="T233" s="2"/>
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A234" s="67"/>
+      <c r="A234" s="68"/>
       <c r="B234" s="45">
         <v>32</v>
       </c>
@@ -9942,7 +9942,7 @@
       <c r="T234" s="2"/>
     </row>
     <row r="235" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A235" s="67"/>
+      <c r="A235" s="68"/>
       <c r="B235" s="45">
         <v>33</v>
       </c>
@@ -9966,7 +9966,7 @@
       <c r="T235" s="2"/>
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A236" s="67"/>
+      <c r="A236" s="68"/>
       <c r="B236" s="45">
         <v>34</v>
       </c>
@@ -9990,7 +9990,7 @@
       <c r="T236" s="2"/>
     </row>
     <row r="237" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A237" s="67"/>
+      <c r="A237" s="68"/>
       <c r="B237" s="45">
         <v>35</v>
       </c>
@@ -10014,7 +10014,7 @@
       <c r="T237" s="2"/>
     </row>
     <row r="238" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A238" s="67"/>
+      <c r="A238" s="68"/>
       <c r="B238" s="45">
         <v>36</v>
       </c>
@@ -10038,7 +10038,7 @@
       <c r="T238" s="2"/>
     </row>
     <row r="239" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A239" s="67"/>
+      <c r="A239" s="68"/>
       <c r="B239" s="45">
         <v>37</v>
       </c>
@@ -10062,7 +10062,7 @@
       <c r="T239" s="2"/>
     </row>
     <row r="240" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A240" s="67"/>
+      <c r="A240" s="68"/>
       <c r="B240" s="45">
         <v>38</v>
       </c>
@@ -10086,7 +10086,7 @@
       <c r="T240" s="2"/>
     </row>
     <row r="241" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A241" s="67"/>
+      <c r="A241" s="68"/>
       <c r="B241" s="45">
         <v>39</v>
       </c>
@@ -10110,7 +10110,7 @@
       <c r="T241" s="2"/>
     </row>
     <row r="242" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A242" s="67"/>
+      <c r="A242" s="68"/>
       <c r="B242" s="45">
         <v>40</v>
       </c>
@@ -10134,7 +10134,7 @@
       <c r="T242" s="2"/>
     </row>
     <row r="243" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A243" s="67"/>
+      <c r="A243" s="68"/>
       <c r="B243" s="45">
         <v>41</v>
       </c>
@@ -10158,7 +10158,7 @@
       <c r="T243" s="2"/>
     </row>
     <row r="244" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A244" s="67"/>
+      <c r="A244" s="68"/>
       <c r="B244" s="45">
         <v>42</v>
       </c>
@@ -10182,7 +10182,7 @@
       <c r="T244" s="2"/>
     </row>
     <row r="245" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A245" s="67"/>
+      <c r="A245" s="68"/>
       <c r="B245" s="45">
         <v>43</v>
       </c>
@@ -10206,7 +10206,7 @@
       <c r="T245" s="2"/>
     </row>
     <row r="246" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A246" s="67"/>
+      <c r="A246" s="68"/>
       <c r="B246" s="45">
         <v>44</v>
       </c>
@@ -10230,7 +10230,7 @@
       <c r="T246" s="2"/>
     </row>
     <row r="247" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A247" s="67"/>
+      <c r="A247" s="68"/>
       <c r="B247" s="45">
         <v>45</v>
       </c>
@@ -10254,7 +10254,7 @@
       <c r="T247" s="2"/>
     </row>
     <row r="248" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A248" s="67"/>
+      <c r="A248" s="68"/>
       <c r="B248" s="45">
         <v>46</v>
       </c>
@@ -10278,7 +10278,7 @@
       <c r="T248" s="2"/>
     </row>
     <row r="249" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A249" s="67"/>
+      <c r="A249" s="68"/>
       <c r="B249" s="45">
         <v>47</v>
       </c>
@@ -10302,7 +10302,7 @@
       <c r="T249" s="2"/>
     </row>
     <row r="250" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A250" s="67"/>
+      <c r="A250" s="68"/>
       <c r="B250" s="45">
         <v>48</v>
       </c>
@@ -10326,7 +10326,7 @@
       <c r="T250" s="2"/>
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A251" s="67"/>
+      <c r="A251" s="68"/>
       <c r="B251" s="45">
         <v>49</v>
       </c>
@@ -10350,7 +10350,7 @@
       <c r="T251" s="2"/>
     </row>
     <row r="252" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A252" s="67"/>
+      <c r="A252" s="68"/>
       <c r="B252" s="45">
         <v>50</v>
       </c>
@@ -10374,7 +10374,7 @@
       <c r="T252" s="2"/>
     </row>
     <row r="253" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A253" s="67"/>
+      <c r="A253" s="68"/>
       <c r="B253" s="45">
         <v>51</v>
       </c>
@@ -10398,7 +10398,7 @@
       <c r="T253" s="2"/>
     </row>
     <row r="254" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A254" s="67"/>
+      <c r="A254" s="68"/>
       <c r="B254" s="45">
         <v>52</v>
       </c>
@@ -10422,7 +10422,7 @@
       <c r="T254" s="2"/>
     </row>
     <row r="255" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A255" s="67"/>
+      <c r="A255" s="68"/>
       <c r="B255" s="45">
         <v>53</v>
       </c>
@@ -10446,7 +10446,7 @@
       <c r="T255" s="2"/>
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A256" s="67"/>
+      <c r="A256" s="68"/>
       <c r="B256" s="45">
         <v>54</v>
       </c>
@@ -10470,7 +10470,7 @@
       <c r="T256" s="2"/>
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A257" s="67"/>
+      <c r="A257" s="68"/>
       <c r="B257" s="45">
         <v>55</v>
       </c>
@@ -10494,7 +10494,7 @@
       <c r="T257" s="2"/>
     </row>
     <row r="258" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A258" s="67"/>
+      <c r="A258" s="68"/>
       <c r="B258" s="45">
         <v>56</v>
       </c>
@@ -10518,7 +10518,7 @@
       <c r="T258" s="2"/>
     </row>
     <row r="259" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A259" s="67"/>
+      <c r="A259" s="68"/>
       <c r="B259" s="45">
         <v>57</v>
       </c>
@@ -10542,7 +10542,7 @@
       <c r="T259" s="2"/>
     </row>
     <row r="260" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A260" s="67"/>
+      <c r="A260" s="68"/>
       <c r="B260" s="45">
         <v>58</v>
       </c>
@@ -10566,7 +10566,7 @@
       <c r="T260" s="2"/>
     </row>
     <row r="261" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A261" s="67"/>
+      <c r="A261" s="68"/>
       <c r="B261" s="45">
         <v>59</v>
       </c>
@@ -10590,7 +10590,7 @@
       <c r="T261" s="2"/>
     </row>
     <row r="262" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A262" s="67"/>
+      <c r="A262" s="68"/>
       <c r="B262" s="45">
         <v>60</v>
       </c>
@@ -10614,7 +10614,7 @@
       <c r="T262" s="2"/>
     </row>
     <row r="263" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A263" s="67"/>
+      <c r="A263" s="68"/>
       <c r="B263" s="45">
         <v>61</v>
       </c>
@@ -10638,7 +10638,7 @@
       <c r="T263" s="2"/>
     </row>
     <row r="264" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A264" s="67"/>
+      <c r="A264" s="68"/>
       <c r="B264" s="45">
         <v>62</v>
       </c>
@@ -10662,7 +10662,7 @@
       <c r="T264" s="2"/>
     </row>
     <row r="265" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A265" s="67"/>
+      <c r="A265" s="68"/>
       <c r="B265" s="45">
         <v>63</v>
       </c>
@@ -10686,7 +10686,7 @@
       <c r="T265" s="2"/>
     </row>
     <row r="266" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A266" s="67"/>
+      <c r="A266" s="68"/>
       <c r="B266" s="45">
         <v>64</v>
       </c>
@@ -10710,7 +10710,7 @@
       <c r="T266" s="2"/>
     </row>
     <row r="267" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A267" s="67"/>
+      <c r="A267" s="68"/>
       <c r="B267" s="45">
         <v>65</v>
       </c>
@@ -10734,7 +10734,7 @@
       <c r="T267" s="2"/>
     </row>
     <row r="268" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A268" s="67"/>
+      <c r="A268" s="68"/>
       <c r="B268" s="45">
         <v>66</v>
       </c>
@@ -10758,7 +10758,7 @@
       <c r="T268" s="2"/>
     </row>
     <row r="269" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A269" s="67"/>
+      <c r="A269" s="68"/>
       <c r="B269" s="45">
         <v>67</v>
       </c>
@@ -10782,7 +10782,7 @@
       <c r="T269" s="2"/>
     </row>
     <row r="270" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A270" s="67"/>
+      <c r="A270" s="68"/>
       <c r="B270" s="45">
         <v>68</v>
       </c>
@@ -10806,7 +10806,7 @@
       <c r="T270" s="2"/>
     </row>
     <row r="271" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A271" s="67"/>
+      <c r="A271" s="68"/>
       <c r="B271" s="45">
         <v>69</v>
       </c>
@@ -10830,7 +10830,7 @@
       <c r="T271" s="2"/>
     </row>
     <row r="272" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A272" s="67"/>
+      <c r="A272" s="68"/>
       <c r="B272" s="45">
         <v>70</v>
       </c>
@@ -10854,7 +10854,7 @@
       <c r="T272" s="2"/>
     </row>
     <row r="273" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A273" s="67"/>
+      <c r="A273" s="68"/>
       <c r="B273" s="45">
         <v>71</v>
       </c>
@@ -10878,7 +10878,7 @@
       <c r="T273" s="2"/>
     </row>
     <row r="274" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A274" s="67"/>
+      <c r="A274" s="68"/>
       <c r="B274" s="45">
         <v>72</v>
       </c>
@@ -10902,7 +10902,7 @@
       <c r="T274" s="2"/>
     </row>
     <row r="275" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A275" s="67"/>
+      <c r="A275" s="68"/>
       <c r="B275" s="45">
         <v>73</v>
       </c>
@@ -10926,7 +10926,7 @@
       <c r="T275" s="2"/>
     </row>
     <row r="276" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A276" s="67"/>
+      <c r="A276" s="68"/>
       <c r="B276" s="45">
         <v>74</v>
       </c>
@@ -10950,7 +10950,7 @@
       <c r="T276" s="2"/>
     </row>
     <row r="277" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A277" s="67"/>
+      <c r="A277" s="68"/>
       <c r="B277" s="45">
         <v>75</v>
       </c>
@@ -10974,7 +10974,7 @@
       <c r="T277" s="2"/>
     </row>
     <row r="278" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A278" s="67"/>
+      <c r="A278" s="68"/>
       <c r="B278" s="45">
         <v>76</v>
       </c>
@@ -10998,7 +10998,7 @@
       <c r="T278" s="2"/>
     </row>
     <row r="279" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A279" s="67"/>
+      <c r="A279" s="68"/>
       <c r="B279" s="45">
         <v>77</v>
       </c>
@@ -11022,7 +11022,7 @@
       <c r="T279" s="2"/>
     </row>
     <row r="280" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A280" s="67"/>
+      <c r="A280" s="68"/>
       <c r="B280" s="45">
         <v>78</v>
       </c>
@@ -11046,7 +11046,7 @@
       <c r="T280" s="2"/>
     </row>
     <row r="281" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A281" s="67"/>
+      <c r="A281" s="68"/>
       <c r="B281" s="45">
         <v>79</v>
       </c>
@@ -11070,7 +11070,7 @@
       <c r="T281" s="2"/>
     </row>
     <row r="282" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A282" s="67"/>
+      <c r="A282" s="68"/>
       <c r="B282" s="45">
         <v>80</v>
       </c>
@@ -11094,7 +11094,7 @@
       <c r="T282" s="2"/>
     </row>
     <row r="283" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A283" s="67"/>
+      <c r="A283" s="68"/>
       <c r="B283" s="45">
         <v>81</v>
       </c>
@@ -11118,7 +11118,7 @@
       <c r="T283" s="2"/>
     </row>
     <row r="284" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A284" s="67"/>
+      <c r="A284" s="68"/>
       <c r="B284" s="45">
         <v>82</v>
       </c>
@@ -11142,7 +11142,7 @@
       <c r="T284" s="2"/>
     </row>
     <row r="285" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A285" s="67"/>
+      <c r="A285" s="68"/>
       <c r="B285" s="45">
         <v>83</v>
       </c>
@@ -11166,7 +11166,7 @@
       <c r="T285" s="2"/>
     </row>
     <row r="286" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A286" s="67"/>
+      <c r="A286" s="68"/>
       <c r="B286" s="45">
         <v>84</v>
       </c>
@@ -11190,7 +11190,7 @@
       <c r="T286" s="2"/>
     </row>
     <row r="287" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A287" s="67"/>
+      <c r="A287" s="68"/>
       <c r="B287" s="45">
         <v>85</v>
       </c>
@@ -11214,7 +11214,7 @@
       <c r="T287" s="2"/>
     </row>
     <row r="288" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A288" s="67"/>
+      <c r="A288" s="68"/>
       <c r="B288" s="45">
         <v>86</v>
       </c>
@@ -11238,7 +11238,7 @@
       <c r="T288" s="2"/>
     </row>
     <row r="289" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A289" s="67"/>
+      <c r="A289" s="68"/>
       <c r="B289" s="45">
         <v>87</v>
       </c>
@@ -11262,7 +11262,7 @@
       <c r="T289" s="2"/>
     </row>
     <row r="290" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A290" s="67"/>
+      <c r="A290" s="68"/>
       <c r="B290" s="45">
         <v>88</v>
       </c>
@@ -11286,7 +11286,7 @@
       <c r="T290" s="2"/>
     </row>
     <row r="291" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A291" s="67"/>
+      <c r="A291" s="68"/>
       <c r="B291" s="45">
         <v>89</v>
       </c>
@@ -11310,7 +11310,7 @@
       <c r="T291" s="2"/>
     </row>
     <row r="292" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A292" s="67"/>
+      <c r="A292" s="68"/>
       <c r="B292" s="45">
         <v>90</v>
       </c>
@@ -11334,7 +11334,7 @@
       <c r="T292" s="2"/>
     </row>
     <row r="293" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A293" s="67"/>
+      <c r="A293" s="68"/>
       <c r="B293" s="45">
         <v>91</v>
       </c>
@@ -11358,7 +11358,7 @@
       <c r="T293" s="2"/>
     </row>
     <row r="294" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A294" s="67"/>
+      <c r="A294" s="68"/>
       <c r="B294" s="45">
         <v>92</v>
       </c>
@@ -11382,7 +11382,7 @@
       <c r="T294" s="2"/>
     </row>
     <row r="295" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A295" s="67"/>
+      <c r="A295" s="68"/>
       <c r="B295" s="45">
         <v>93</v>
       </c>
@@ -11406,7 +11406,7 @@
       <c r="T295" s="2"/>
     </row>
     <row r="296" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A296" s="67"/>
+      <c r="A296" s="68"/>
       <c r="B296" s="45">
         <v>94</v>
       </c>
@@ -11430,7 +11430,7 @@
       <c r="T296" s="2"/>
     </row>
     <row r="297" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A297" s="67"/>
+      <c r="A297" s="68"/>
       <c r="B297" s="45">
         <v>95</v>
       </c>
@@ -11454,7 +11454,7 @@
       <c r="T297" s="2"/>
     </row>
     <row r="298" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A298" s="67"/>
+      <c r="A298" s="68"/>
       <c r="B298" s="45">
         <v>96</v>
       </c>
@@ -11478,7 +11478,7 @@
       <c r="T298" s="2"/>
     </row>
     <row r="299" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A299" s="67"/>
+      <c r="A299" s="68"/>
       <c r="B299" s="45">
         <v>97</v>
       </c>
@@ -11502,7 +11502,7 @@
       <c r="T299" s="2"/>
     </row>
     <row r="300" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A300" s="67"/>
+      <c r="A300" s="68"/>
       <c r="B300" s="45">
         <v>98</v>
       </c>
@@ -11526,7 +11526,7 @@
       <c r="T300" s="2"/>
     </row>
     <row r="301" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A301" s="67"/>
+      <c r="A301" s="68"/>
       <c r="B301" s="45">
         <v>99</v>
       </c>
@@ -11550,7 +11550,7 @@
       <c r="T301" s="2"/>
     </row>
     <row r="302" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="69"/>
+      <c r="A302" s="70"/>
       <c r="B302" s="46">
         <v>100</v>
       </c>
@@ -11604,8 +11604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11620,34 +11620,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="76" t="s">
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="73" t="s">
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="76"/>
     </row>
     <row r="2" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="79"/>
+      <c r="A2" s="80"/>
       <c r="B2" s="24" t="s">
         <v>3</v>
       </c>
@@ -11795,75 +11795,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="93" t="s">
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="87" t="s">
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="90"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="85"/>
-      <c r="B2" s="90">
+      <c r="A2" s="86"/>
+      <c r="B2" s="91">
         <v>0.05</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91">
+      <c r="C2" s="92"/>
+      <c r="D2" s="92">
         <v>0.12</v>
       </c>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91" t="s">
+      <c r="E2" s="92"/>
+      <c r="F2" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="92"/>
-      <c r="H2" s="95">
+      <c r="G2" s="93"/>
+      <c r="H2" s="96">
         <v>0.05</v>
       </c>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91">
+      <c r="I2" s="92"/>
+      <c r="J2" s="92">
         <v>0.12</v>
       </c>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91" t="s">
+      <c r="K2" s="92"/>
+      <c r="L2" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="96"/>
-      <c r="N2" s="90">
+      <c r="M2" s="97"/>
+      <c r="N2" s="91">
         <v>0.05</v>
       </c>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92">
         <v>0.12</v>
       </c>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91" t="s">
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="92"/>
+      <c r="S2" s="93"/>
     </row>
     <row r="3" spans="1:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="86"/>
+      <c r="A3" s="87"/>
       <c r="B3" s="29" t="s">
         <v>3</v>
       </c>
@@ -12105,8 +12105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12117,20 +12117,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="75"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="76"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="79"/>
+      <c r="A2" s="80"/>
       <c r="B2" s="24" t="s">
         <v>16</v>
       </c>
@@ -12157,10 +12157,10 @@
       <c r="B3" s="20">
         <v>-193459</v>
       </c>
-      <c r="C3" s="97">
+      <c r="C3" s="66">
         <v>3106750</v>
       </c>
-      <c r="D3" s="97">
+      <c r="D3" s="66">
         <v>-3207820</v>
       </c>
       <c r="E3" s="18">
@@ -12242,8 +12242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
